--- a/Progreso/BurnUp.xlsx
+++ b/Progreso/BurnUp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\vm\2o cuatrimestre\D12-Acme-Pet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\VM\D12-Acme-Pet\Progreso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Revisión 1</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Subida de entregable</t>
+  </si>
+  <si>
+    <t>Planificacion</t>
+  </si>
+  <si>
+    <t>Redaccion test aceptacion</t>
   </si>
 </sst>
 </file>
@@ -386,25 +392,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,7 +490,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E53"/>
+  <dimension ref="A4:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1731,7 @@
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -1730,82 +1739,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(E16:E53,"=0")</f>
+        <f>COUNTIF(E16:E54,"=0")</f>
         <v>1</v>
       </c>
       <c r="E5">
+        <f>COUNTIF(F16:F54,"=0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <f>COUNTIF(E16:E53,"=1")</f>
-        <v>8</v>
+        <f>COUNTIF(E16:E54,"=1")+D5</f>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=1")+E5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="D7">
+        <f>COUNTIF(E16:E54,"=2")+D6</f>
+        <v>10</v>
+      </c>
       <c r="E7">
+        <f>COUNTIF(F16:F54,"=2")+E6</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=3")+E7</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <f>E6+E8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=4")+E8</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="E10">
-        <f>E9+E6</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=5")+E9</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <f>E10+E6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=6")+E10</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="E12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <f>COUNTIF(F16:F54,"=7")+E11</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1815,8 +1833,11 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1826,8 +1847,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1837,8 +1861,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1848,8 +1875,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1859,8 +1889,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1870,8 +1903,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1881,8 +1917,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1890,10 +1929,13 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1901,10 +1943,13 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1914,8 +1959,11 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1923,21 +1971,27 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1947,8 +2001,11 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1958,8 +2015,11 @@
       <c r="E28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1969,8 +2029,11 @@
       <c r="E29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1980,8 +2043,11 @@
       <c r="E30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1991,8 +2057,11 @@
       <c r="E31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2002,8 +2071,11 @@
       <c r="E32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2013,8 +2085,11 @@
       <c r="E33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2024,8 +2099,11 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2035,8 +2113,11 @@
       <c r="E35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2127,11 @@
       <c r="E36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2057,8 +2141,11 @@
       <c r="E37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2068,8 +2155,11 @@
       <c r="E38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2079,8 +2169,11 @@
       <c r="E39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2090,8 +2183,11 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2101,8 +2197,11 @@
       <c r="E41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2112,54 +2211,63 @@
       <c r="E42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -2167,21 +2275,27 @@
       <c r="E47" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
-      </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -2189,10 +2303,13 @@
       <c r="E49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -2200,38 +2317,64 @@
       <c r="E50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>23</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Progreso/BurnUp.xlsx
+++ b/Progreso/BurnUp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\VM\D12-Acme-Pet\Progreso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\vm\2o cuatrimestre\D12-Acme-Pet\Progreso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Revisión 1</t>
   </si>
@@ -494,6 +494,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1724,7 @@
   <dimension ref="A4:F54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,6 +1785,10 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8">
+        <f>COUNTIF(E16:E54,"=3")+D7</f>
+        <v>16</v>
+      </c>
       <c r="E8">
         <f>COUNTIF(F16:F54,"=3")+E7</f>
         <v>16</v>
@@ -1956,8 +1963,8 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
-        <v>23</v>
+      <c r="E24">
+        <v>3</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2012,8 +2019,8 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
-        <v>23</v>
+      <c r="E28">
+        <v>3</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -2026,8 +2033,8 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>23</v>
+      <c r="E29">
+        <v>3</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2040,8 +2047,8 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
-        <v>23</v>
+      <c r="E30">
+        <v>3</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -2054,8 +2061,8 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" t="s">
-        <v>23</v>
+      <c r="E31">
+        <v>3</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2166,8 +2173,8 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>23</v>
+      <c r="E39">
+        <v>3</v>
       </c>
       <c r="F39">
         <v>4</v>

--- a/Progreso/BurnUp.xlsx
+++ b/Progreso/BurnUp.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\vm\2o cuatrimestre\D12-Acme-Pet\Progreso\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Revisión 1</t>
   </si>
@@ -187,12 +182,36 @@
   </si>
   <si>
     <t>Redaccion test aceptacion</t>
+  </si>
+  <si>
+    <t>Roldan</t>
+  </si>
+  <si>
+    <t>Acha</t>
+  </si>
+  <si>
+    <t>Javi</t>
+  </si>
+  <si>
+    <t>Roldan, Gavira</t>
+  </si>
+  <si>
+    <t>Dani, Javi</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Acha, Roldan</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,12 +237,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +272,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -289,9 +319,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="114300" cap="rnd">
@@ -302,7 +329,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-1747-40B2-AE14-CE2DBD08F13A}"/>
               </c:ext>
@@ -310,9 +337,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="114300" cap="rnd">
@@ -323,7 +347,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-1747-40B2-AE14-CE2DBD08F13A}"/>
               </c:ext>
@@ -331,9 +355,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="114300" cap="rnd" cmpd="sng">
@@ -344,7 +365,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-1747-40B2-AE14-CE2DBD08F13A}"/>
               </c:ext>
@@ -416,7 +437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1747-40B2-AE14-CE2DBD08F13A}"/>
             </c:ext>
@@ -498,11 +519,14 @@
                 <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1747-40B2-AE14-CE2DBD08F13A}"/>
             </c:ext>
@@ -516,12 +540,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549121872"/>
-        <c:axId val="553455216"/>
+        <c:axId val="140233216"/>
+        <c:axId val="152616960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="549121872"/>
+        <c:axId val="140233216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,6 +578,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -561,26 +587,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="4400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -619,7 +625,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553455216"/>
+        <c:crossAx val="152616960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553455216"/>
+        <c:axId val="152616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,6 +679,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -681,26 +688,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="4400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -733,7 +720,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549121872"/>
+        <c:crossAx val="140233216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -747,6 +734,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -813,559 +801,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1386,7 +821,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958BCEC4-EB27-4421-99F4-0D9EB3ADA575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{958BCEC4-EB27-4421-99F4-0D9EB3ADA575}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1504,7 +939,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1698,7 +1133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1708,23 +1143,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F54"/>
+  <dimension ref="A4:G54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,6 +1234,10 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <f>COUNTIF(E16:E54,"=4")+D8</f>
+        <v>24</v>
+      </c>
       <c r="E9">
         <f>COUNTIF(F16:F54,"=4")+E8</f>
         <v>27</v>
@@ -2005,8 +1445,8 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
-        <v>23</v>
+      <c r="E27">
+        <v>4</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2075,14 +1515,14 @@
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
-        <v>23</v>
+      <c r="E32">
+        <v>4</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2095,78 +1535,81 @@
       <c r="F33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
-        <v>23</v>
+      <c r="E34">
+        <v>4</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
-        <v>23</v>
+      <c r="E35">
+        <v>4</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
-        <v>23</v>
+      <c r="E36">
+        <v>4</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
-        <v>23</v>
+      <c r="E37">
+        <v>4</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
-        <v>23</v>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2180,21 +1623,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>23</v>
+      <c r="E40">
+        <v>4</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2207,8 +1650,11 @@
       <c r="F41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2221,16 +1667,28 @@
       <c r="F42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2243,8 +1701,11 @@
       <c r="F44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2257,8 +1718,11 @@
       <c r="F45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2271,8 +1735,11 @@
       <c r="F46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2286,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2300,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2313,8 +1780,11 @@
       <c r="F49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2327,8 +1797,11 @@
       <c r="F50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +1814,11 @@
       <c r="F51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +1831,11 @@
       <c r="F52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>

--- a/Progreso/BurnUp.xlsx
+++ b/Progreso/BurnUp.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\VM\Nueva carpeta\D12-Acme-Pet\Progreso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Tareas completadas</t>
   </si>
@@ -207,46 +211,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="36"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="44"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,68 +230,36 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -378,19 +318,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -406,12 +367,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="114480">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -420,17 +378,31 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja3!$C$5:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Presentación</c:v>
                 </c:pt>
@@ -454,27 +426,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,6 +463,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B45-49C5-AC58-8F9D76B3FE1A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -528,12 +485,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="114480">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -542,17 +496,31 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja3!$C$5:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Presentación</c:v>
                 </c:pt>
@@ -576,37 +544,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Entrega</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$D$5:$D$12</c:f>
+              <c:f>Hoja3!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -626,16 +573,27 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B45-49C5-AC58-8F9D76B3FE1A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="89591745"/>
         <c:axId val="83302169"/>
       </c:lineChart>
@@ -656,7 +614,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="4400">
+                  <a:rPr lang="es-ES" sz="4400" b="1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -668,14 +626,16 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -685,6 +645,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="83302169"/>
@@ -697,7 +658,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -713,7 +674,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="4400">
+                  <a:rPr lang="es-ES" sz="4400" b="1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -725,7 +686,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -736,6 +699,7 @@
         </c:spPr>
         <c:crossAx val="89591745"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -746,6 +710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -755,23 +720,30 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -785,14 +757,14 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2919240" y="609840"/>
-        <a:ext cx="19213200" cy="8596080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -805,757 +777,1010 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P65" activeCellId="0" sqref="P65"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="21.85546875"/>
+    <col min="4" max="4" width="15.85546875"/>
+    <col min="5" max="5" width="17.140625"/>
+    <col min="6" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">COUNTIF(E16:E54,"=0")</f>
+      <c r="D5">
+        <f>COUNTIF(E16:E54,"=0")</f>
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=0")</f>
+      <c r="E5">
+        <f>COUNTIF(F16:F54,"=0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">COUNTIF(E16:E54,"=1")+D5</f>
-        <v>6</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=1")+E5</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">COUNTIF(E16:E54,"=2")+D6</f>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(E16:E54,"=1")+D5</f>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(F16:F54,"=1")+E5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(E16:E54,"=2")+D6</f>
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=2")+E6</f>
+      <c r="E7">
+        <f>COUNTIF(F16:F54,"=2")+E6</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">COUNTIF(E16:E54,"=3")+D7</f>
+      <c r="D8">
+        <f>COUNTIF(E16:E54,"=3")+D7</f>
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=3")+E7</f>
+      <c r="E8">
+        <f>COUNTIF(F16:F54,"=3")+E7</f>
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">COUNTIF(E$16:E$54,"=4")+D8</f>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(E$16:E$54,"=4")+D8</f>
         <v>24</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=4")+E8</f>
+      <c r="E9">
+        <f>COUNTIF(F16:F54,"=4")+E8</f>
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">COUNTIF(E$16:E$54,"=5")+D9</f>
+      <c r="D10">
+        <f>COUNTIF(E$16:E$54,"=5")+D9</f>
         <v>27</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=5")+E9</f>
+      <c r="E10">
+        <f>COUNTIF(F16:F54,"=5")+E9</f>
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=6")+E10</f>
+      <c r="D11">
+        <f>COUNTIF(E$16:E$54,"=6")+D10</f>
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(F16:F54,"=6")+E10</f>
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">COUNTIF(F16:F54,"=7")+E11</f>
+      <c r="D12">
+        <f>COUNTIF(E$16:E$54,"=7")+D11</f>
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(F16:F54,"=7")+E11</f>
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="0" t="n">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
         <v>5</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="1">
         <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="0" t="n">
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="0" t="n">
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="0" t="n">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="0" t="n">
+      <c r="F54">
         <v>7</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>